--- a/noCRM/src/test/resources/test_data/TestScriptData.xlsx
+++ b/noCRM/src/test/resources/test_data/TestScriptData.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\noCRM Project\noCRM\src\test\resources\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manikandan\git\noCrmRepo\noCRM\src\test\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94778432-81DD-4284-B535-23E1D86DE333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C7622A-4866-4F5D-BD7F-C0560F64F033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{02B5BFA7-E036-4232-B869-6C0E5EAB829E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{02B5BFA7-E036-4232-B869-6C0E5EAB829E}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
     <sheet name="NewLead" sheetId="2" r:id="rId2"/>
+    <sheet name="ClientAddress" sheetId="3" r:id="rId3"/>
+    <sheet name="Client" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Password</t>
   </si>
@@ -95,13 +97,73 @@
   </si>
   <si>
     <t>Probability</t>
+  </si>
+  <si>
+    <t>VAT Number</t>
+  </si>
+  <si>
+    <t>Billing address</t>
+  </si>
+  <si>
+    <t>Delivery address</t>
+  </si>
+  <si>
+    <t>DE111222385</t>
+  </si>
+  <si>
+    <t>Acme Solutions, 8800 Innovation Way, Suite 400 Cambridge, MA 02139 United States</t>
+  </si>
+  <si>
+    <t>1234 Example St Apt 7B Pleasantview, CA 90210 United States</t>
+  </si>
+  <si>
+    <t>LeadName</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>VATNumber</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>workshop_</t>
+  </si>
+  <si>
+    <t>Acme Solutions, 8800 Innovation Way, Suite 400</t>
+  </si>
+  <si>
+    <t>DE11122238585</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>8540</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +192,25 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,7 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -160,6 +234,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -534,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D5F26-06F8-485C-A4C6-7704A44BAB4F}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -620,4 +701,116 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D675570-4D1A-4153-B2B8-00C4F257D3E0}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="52.77734375" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4FC9E1-440A-4131-84AA-AF2712A6B758}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>